--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N2">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q2">
-        <v>0.1497852747488889</v>
+        <v>0.117147418305</v>
       </c>
       <c r="R2">
-        <v>1.34806747274</v>
+        <v>1.054326764745</v>
       </c>
       <c r="S2">
-        <v>0.02784494094384934</v>
+        <v>0.01490626883745211</v>
       </c>
       <c r="T2">
-        <v>0.02784494094384934</v>
+        <v>0.01490626883745211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N3">
         <v>50.444323</v>
       </c>
       <c r="O3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q3">
-        <v>3.839474361423779</v>
+        <v>2.211126010059</v>
       </c>
       <c r="R3">
-        <v>34.55526925281401</v>
+        <v>19.900134090531</v>
       </c>
       <c r="S3">
-        <v>0.7137546533095493</v>
+        <v>0.2813518148015007</v>
       </c>
       <c r="T3">
-        <v>0.7137546533095492</v>
+        <v>0.2813518148015007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N4">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q4">
-        <v>0.7380707412722223</v>
+        <v>0.5102116490340001</v>
       </c>
       <c r="R4">
-        <v>6.64263667145</v>
+        <v>4.591904841306</v>
       </c>
       <c r="S4">
-        <v>0.1372066529073853</v>
+        <v>0.06492120880290847</v>
       </c>
       <c r="T4">
-        <v>0.1372066529073853</v>
+        <v>0.06492120880290847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H5">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I5">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J5">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N5">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q5">
-        <v>0.1359555985731111</v>
+        <v>0.03347762908200001</v>
       </c>
       <c r="R5">
-        <v>1.223600387158</v>
+        <v>0.301298661738</v>
       </c>
       <c r="S5">
-        <v>0.02527401721965362</v>
+        <v>0.00425981678774647</v>
       </c>
       <c r="T5">
-        <v>0.02527401721965362</v>
+        <v>0.004259816787746469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N6">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O6">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P6">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q6">
-        <v>0.01589169072666666</v>
+        <v>0.2034187590588889</v>
       </c>
       <c r="R6">
-        <v>0.14302521654</v>
+        <v>1.83076883153</v>
       </c>
       <c r="S6">
-        <v>0.002954250279433654</v>
+        <v>0.02588375188276152</v>
       </c>
       <c r="T6">
-        <v>0.002954250279433654</v>
+        <v>0.02588375188276152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N7">
         <v>50.444323</v>
       </c>
       <c r="O7">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P7">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q7">
-        <v>0.4073547229993333</v>
+        <v>3.839474361423778</v>
       </c>
       <c r="R7">
-        <v>3.666192506994</v>
+        <v>34.555269252814</v>
       </c>
       <c r="S7">
-        <v>0.0757268578245118</v>
+        <v>0.4885488545456478</v>
       </c>
       <c r="T7">
-        <v>0.07572685782451179</v>
+        <v>0.4885488545456477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H8">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I8">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J8">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N8">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O8">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P8">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q8">
-        <v>0.07830670921666666</v>
+        <v>0.885948849796</v>
       </c>
       <c r="R8">
-        <v>0.7047603829499999</v>
+        <v>7.973539648164</v>
       </c>
       <c r="S8">
-        <v>0.01455714319916111</v>
+        <v>0.1127313936779006</v>
       </c>
       <c r="T8">
-        <v>0.01455714319916111</v>
+        <v>0.1127313936779006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H9">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I9">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J9">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N9">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O9">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P9">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q9">
-        <v>0.01442441073533333</v>
+        <v>0.05813169306355556</v>
       </c>
       <c r="R9">
-        <v>0.129819696618</v>
+        <v>0.5231852375720001</v>
       </c>
       <c r="S9">
-        <v>0.002681484316455898</v>
+        <v>0.007396890664082392</v>
       </c>
       <c r="T9">
-        <v>0.002681484316455897</v>
+        <v>0.007396890664082391</v>
       </c>
     </row>
   </sheetData>
